--- a/pred_ohlcv/54_21/2020-01-23 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XEM ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-295228.6350862199</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-297519.9917862199</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-285519.9917862199</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-217649.3251862199</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-332725.7299971099</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-344102.9922971099</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-341688.4639971099</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-341564.4684613999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-380564.6288978999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-380564.6288978999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-306665.1550979</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-378414.0938979</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-332805.0500979</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-332805.0500979</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-322805.0500979</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-330598.1161979</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-330598.1161979</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-350598.1161979</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-353402.9168979</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-351136.3791707599</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-350937.2015707599</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-351358.3791707599</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-307855.93471902</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-278681.27671902</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-254704.78451902</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-295879.83891902</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-296503.31051902</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-295032.2942190199</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-271433.1098190199</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-275041.1224190199</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-280219.4358190199</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-268019.4358190199</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-229450.5436190199</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-146972.9572190199</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-76711.23656683991</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>21424.35774402009</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-60882.0084659099</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-84682.00846590989</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-79114.52186590989</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XEM ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-332725.7299971099</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-344102.9922971099</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-341688.4639971099</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-341564.4684613999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-380564.6288978999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-306665.1550979</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-332805.0500979</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-332805.0500979</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-322805.0500979</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-330598.1161979</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-330598.1161979</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-350598.1161979</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-353402.9168979</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-259267.58511902</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-259267.58511902</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-295879.83891902</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-296503.31051902</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-295032.2942190199</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-271433.1098190199</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-275041.1224190199</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-280219.4358190199</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-268019.4358190199</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-229450.5436190199</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-146972.9572190199</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-76711.23656683991</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>21424.35774402009</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>52595.8006199201</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-60882.0084659099</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-84682.00846590989</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-79114.52186590989</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
